--- a/out/rent_fixed_towns.xlsx
+++ b/out/rent_fixed_towns.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y358"/>
+  <dimension ref="A1:Z358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,11 @@
           <t>Margin of Error!!Total:!!Not computed</t>
         </is>
       </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Number Burdened</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -634,6 +639,9 @@
       </c>
       <c r="Y2" t="n">
         <v>12</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -716,6 +724,9 @@
       <c r="Y3" t="n">
         <v>115</v>
       </c>
+      <c r="Z3" t="n">
+        <v>2353</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -797,6 +808,9 @@
       <c r="Y4" t="n">
         <v>128</v>
       </c>
+      <c r="Z4" t="n">
+        <v>907</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -878,6 +892,9 @@
       <c r="Y5" t="n">
         <v>92</v>
       </c>
+      <c r="Z5" t="n">
+        <v>292</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -959,6 +976,9 @@
       <c r="Y6" t="n">
         <v>31</v>
       </c>
+      <c r="Z6" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1040,6 +1060,9 @@
       <c r="Y7" t="n">
         <v>43</v>
       </c>
+      <c r="Z7" t="n">
+        <v>1078</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1121,6 +1144,9 @@
       <c r="Y8" t="n">
         <v>46</v>
       </c>
+      <c r="Z8" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1202,6 +1228,9 @@
       <c r="Y9" t="n">
         <v>122</v>
       </c>
+      <c r="Z9" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1283,6 +1312,9 @@
       <c r="Y10" t="n">
         <v>38</v>
       </c>
+      <c r="Z10" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1364,6 +1396,9 @@
       <c r="Y11" t="n">
         <v>79</v>
       </c>
+      <c r="Z11" t="n">
+        <v>470</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1445,6 +1480,9 @@
       <c r="Y12" t="n">
         <v>17</v>
       </c>
+      <c r="Z12" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1526,6 +1564,9 @@
       <c r="Y13" t="n">
         <v>19</v>
       </c>
+      <c r="Z13" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1606,6 +1647,9 @@
       </c>
       <c r="Y14" t="n">
         <v>42</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>390</v>
       </c>
     </row>
     <row r="15">
@@ -1688,6 +1732,9 @@
       <c r="Y15" t="n">
         <v>45</v>
       </c>
+      <c r="Z15" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1769,6 +1816,9 @@
       <c r="Y16" t="n">
         <v>36</v>
       </c>
+      <c r="Z16" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1850,6 +1900,9 @@
       <c r="Y17" t="n">
         <v>83</v>
       </c>
+      <c r="Z17" t="n">
+        <v>1171</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1931,6 +1984,9 @@
       <c r="Y18" t="n">
         <v>59</v>
       </c>
+      <c r="Z18" t="n">
+        <v>663</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2012,6 +2068,9 @@
       <c r="Y19" t="n">
         <v>3</v>
       </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2093,6 +2152,9 @@
       <c r="Y20" t="n">
         <v>6</v>
       </c>
+      <c r="Z20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2174,6 +2236,9 @@
       <c r="Y21" t="n">
         <v>52</v>
       </c>
+      <c r="Z21" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2255,6 +2320,9 @@
       <c r="Y22" t="n">
         <v>19</v>
       </c>
+      <c r="Z22" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2336,6 +2404,9 @@
       <c r="Y23" t="n">
         <v>42</v>
       </c>
+      <c r="Z23" t="n">
+        <v>333</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2417,6 +2488,9 @@
       <c r="Y24" t="n">
         <v>9</v>
       </c>
+      <c r="Z24" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2498,6 +2572,9 @@
       <c r="Y25" t="n">
         <v>6</v>
       </c>
+      <c r="Z25" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2579,6 +2656,9 @@
       <c r="Y26" t="n">
         <v>48</v>
       </c>
+      <c r="Z26" t="n">
+        <v>416</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2660,6 +2740,9 @@
       <c r="Y27" t="n">
         <v>10</v>
       </c>
+      <c r="Z27" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2741,6 +2824,9 @@
       <c r="Y28" t="n">
         <v>12</v>
       </c>
+      <c r="Z28" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2822,6 +2908,9 @@
       <c r="Y29" t="n">
         <v>76</v>
       </c>
+      <c r="Z29" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2903,6 +2992,9 @@
       <c r="Y30" t="n">
         <v>79</v>
       </c>
+      <c r="Z30" t="n">
+        <v>266</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2984,6 +3076,9 @@
       <c r="Y31" t="n">
         <v>81</v>
       </c>
+      <c r="Z31" t="n">
+        <v>382</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3065,6 +3160,9 @@
       <c r="Y32" t="n">
         <v>12</v>
       </c>
+      <c r="Z32" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3146,6 +3244,9 @@
       <c r="Y33" t="n">
         <v>10</v>
       </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3227,6 +3328,9 @@
       <c r="Y34" t="n">
         <v>12</v>
       </c>
+      <c r="Z34" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3308,6 +3412,9 @@
       <c r="Y35" t="n">
         <v>20</v>
       </c>
+      <c r="Z35" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3389,6 +3496,9 @@
       <c r="Y36" t="n">
         <v>82</v>
       </c>
+      <c r="Z36" t="n">
+        <v>1172</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3470,6 +3580,9 @@
       <c r="Y37" t="n">
         <v>30</v>
       </c>
+      <c r="Z37" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3551,6 +3664,9 @@
       <c r="Y38" t="n">
         <v>16</v>
       </c>
+      <c r="Z38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3632,6 +3748,9 @@
       <c r="Y39" t="n">
         <v>161</v>
       </c>
+      <c r="Z39" t="n">
+        <v>3794</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3713,6 +3832,9 @@
       <c r="Y40" t="n">
         <v>12</v>
       </c>
+      <c r="Z40" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3794,6 +3916,9 @@
       <c r="Y41" t="n">
         <v>12</v>
       </c>
+      <c r="Z41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3875,6 +4000,9 @@
       <c r="Y42" t="n">
         <v>12</v>
       </c>
+      <c r="Z42" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3956,6 +4084,9 @@
       <c r="Y43" t="n">
         <v>22</v>
       </c>
+      <c r="Z43" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4037,6 +4168,9 @@
       <c r="Y44" t="n">
         <v>37</v>
       </c>
+      <c r="Z44" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -4118,6 +4252,9 @@
       <c r="Y45" t="n">
         <v>9</v>
       </c>
+      <c r="Z45" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -4199,6 +4336,9 @@
       <c r="Y46" t="n">
         <v>7</v>
       </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -4280,6 +4420,9 @@
       <c r="Y47" t="n">
         <v>18</v>
       </c>
+      <c r="Z47" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -4361,6 +4504,9 @@
       <c r="Y48" t="n">
         <v>24</v>
       </c>
+      <c r="Z48" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -4442,6 +4588,9 @@
       <c r="Y49" t="n">
         <v>12</v>
       </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -4523,6 +4672,9 @@
       <c r="Y50" t="n">
         <v>12</v>
       </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -4604,6 +4756,9 @@
       <c r="Y51" t="n">
         <v>53</v>
       </c>
+      <c r="Z51" t="n">
+        <v>184</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -4685,6 +4840,9 @@
       <c r="Y52" t="n">
         <v>132</v>
       </c>
+      <c r="Z52" t="n">
+        <v>2528</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -4766,6 +4924,9 @@
       <c r="Y53" t="n">
         <v>51</v>
       </c>
+      <c r="Z53" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -4847,6 +5008,9 @@
       <c r="Y54" t="n">
         <v>67</v>
       </c>
+      <c r="Z54" t="n">
+        <v>1024</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -4928,6 +5092,9 @@
       <c r="Y55" t="n">
         <v>50</v>
       </c>
+      <c r="Z55" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -5009,6 +5176,9 @@
       <c r="Y56" t="n">
         <v>50</v>
       </c>
+      <c r="Z56" t="n">
+        <v>887</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -5090,6 +5260,9 @@
       <c r="Y57" t="n">
         <v>84</v>
       </c>
+      <c r="Z57" t="n">
+        <v>575</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -5171,6 +5344,9 @@
       <c r="Y58" t="n">
         <v>235</v>
       </c>
+      <c r="Z58" t="n">
+        <v>11278</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -5252,6 +5428,9 @@
       <c r="Y59" t="n">
         <v>12</v>
       </c>
+      <c r="Z59" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -5333,6 +5512,9 @@
       <c r="Y60" t="n">
         <v>75</v>
       </c>
+      <c r="Z60" t="n">
+        <v>818</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -5414,6 +5596,9 @@
       <c r="Y61" t="n">
         <v>242</v>
       </c>
+      <c r="Z61" t="n">
+        <v>9930</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -5495,6 +5680,9 @@
       <c r="Y62" t="n">
         <v>90</v>
       </c>
+      <c r="Z62" t="n">
+        <v>1489</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -5576,6 +5764,9 @@
       <c r="Y63" t="n">
         <v>39</v>
       </c>
+      <c r="Z63" t="n">
+        <v>434</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -5657,6 +5848,9 @@
       <c r="Y64" t="n">
         <v>31</v>
       </c>
+      <c r="Z64" t="n">
+        <v>381</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -5738,6 +5932,9 @@
       <c r="Y65" t="n">
         <v>48</v>
       </c>
+      <c r="Z65" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -5819,6 +6016,9 @@
       <c r="Y66" t="n">
         <v>25</v>
       </c>
+      <c r="Z66" t="n">
+        <v>302</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -5900,6 +6100,9 @@
       <c r="Y67" t="n">
         <v>66</v>
       </c>
+      <c r="Z67" t="n">
+        <v>499</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -5981,6 +6184,9 @@
       <c r="Y68" t="n">
         <v>95</v>
       </c>
+      <c r="Z68" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -6062,6 +6268,9 @@
       <c r="Y69" t="n">
         <v>172</v>
       </c>
+      <c r="Z69" t="n">
+        <v>4160</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -6143,6 +6352,9 @@
       <c r="Y70" t="n">
         <v>78</v>
       </c>
+      <c r="Z70" t="n">
+        <v>554</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -6224,6 +6436,9 @@
       <c r="Y71" t="n">
         <v>12</v>
       </c>
+      <c r="Z71" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -6305,6 +6520,9 @@
       <c r="Y72" t="n">
         <v>19</v>
       </c>
+      <c r="Z72" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -6386,6 +6604,9 @@
       <c r="Y73" t="n">
         <v>76</v>
       </c>
+      <c r="Z73" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -6467,6 +6688,9 @@
       <c r="Y74" t="n">
         <v>3</v>
       </c>
+      <c r="Z74" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -6548,6 +6772,9 @@
       <c r="Y75" t="n">
         <v>12</v>
       </c>
+      <c r="Z75" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -6629,6 +6856,9 @@
       <c r="Y76" t="n">
         <v>133</v>
       </c>
+      <c r="Z76" t="n">
+        <v>333</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -6710,6 +6940,9 @@
       <c r="Y77" t="n">
         <v>13</v>
       </c>
+      <c r="Z77" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -6791,6 +7024,9 @@
       <c r="Y78" t="n">
         <v>12</v>
       </c>
+      <c r="Z78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -6872,6 +7108,9 @@
       <c r="Y79" t="n">
         <v>42</v>
       </c>
+      <c r="Z79" t="n">
+        <v>1028</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -6953,6 +7192,9 @@
       <c r="Y80" t="n">
         <v>108</v>
       </c>
+      <c r="Z80" t="n">
+        <v>911</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -7034,6 +7276,9 @@
       <c r="Y81" t="n">
         <v>124</v>
       </c>
+      <c r="Z81" t="n">
+        <v>3501</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -7115,6 +7360,9 @@
       <c r="Y82" t="n">
         <v>25</v>
       </c>
+      <c r="Z82" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -7196,6 +7444,9 @@
       <c r="Y83" t="n">
         <v>103</v>
       </c>
+      <c r="Z83" t="n">
+        <v>1538</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -7277,6 +7528,9 @@
       <c r="Y84" t="n">
         <v>44</v>
       </c>
+      <c r="Z84" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -7358,6 +7612,9 @@
       <c r="Y85" t="n">
         <v>20</v>
       </c>
+      <c r="Z85" t="n">
+        <v>337</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -7439,6 +7696,9 @@
       <c r="Y86" t="n">
         <v>94</v>
       </c>
+      <c r="Z86" t="n">
+        <v>2418</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -7520,6 +7780,9 @@
       <c r="Y87" t="n">
         <v>86</v>
       </c>
+      <c r="Z87" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -7601,6 +7864,9 @@
       <c r="Y88" t="n">
         <v>79</v>
       </c>
+      <c r="Z88" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -7682,6 +7948,9 @@
       <c r="Y89" t="n">
         <v>171</v>
       </c>
+      <c r="Z89" t="n">
+        <v>5335</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -7763,6 +8032,9 @@
       <c r="Y90" t="n">
         <v>81</v>
       </c>
+      <c r="Z90" t="n">
+        <v>720</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -7844,6 +8116,9 @@
       <c r="Y91" t="n">
         <v>184</v>
       </c>
+      <c r="Z91" t="n">
+        <v>10050</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -7925,6 +8200,9 @@
       <c r="Y92" t="n">
         <v>203</v>
       </c>
+      <c r="Z92" t="n">
+        <v>9654</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -8006,6 +8284,9 @@
       <c r="Y93" t="n">
         <v>19</v>
       </c>
+      <c r="Z93" t="n">
+        <v>508</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -8087,6 +8368,9 @@
       <c r="Y94" t="n">
         <v>21</v>
       </c>
+      <c r="Z94" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -8168,6 +8452,9 @@
       <c r="Y95" t="n">
         <v>69</v>
       </c>
+      <c r="Z95" t="n">
+        <v>887</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -8249,6 +8536,9 @@
       <c r="Y96" t="n">
         <v>30</v>
       </c>
+      <c r="Z96" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -8330,6 +8620,9 @@
       <c r="Y97" t="n">
         <v>123</v>
       </c>
+      <c r="Z97" t="n">
+        <v>2690</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -8411,6 +8704,9 @@
       <c r="Y98" t="n">
         <v>47</v>
       </c>
+      <c r="Z98" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -8492,6 +8788,9 @@
       <c r="Y99" t="n">
         <v>12</v>
       </c>
+      <c r="Z99" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -8573,6 +8872,9 @@
       <c r="Y100" t="n">
         <v>93</v>
       </c>
+      <c r="Z100" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -8654,6 +8956,9 @@
       <c r="Y101" t="n">
         <v>53</v>
       </c>
+      <c r="Z101" t="n">
+        <v>776</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -8735,6 +9040,9 @@
       <c r="Y102" t="n">
         <v>72</v>
       </c>
+      <c r="Z102" t="n">
+        <v>1467</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -8816,6 +9124,9 @@
       <c r="Y103" t="n">
         <v>133</v>
       </c>
+      <c r="Z103" t="n">
+        <v>4302</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -8897,6 +9208,9 @@
       <c r="Y104" t="n">
         <v>59</v>
       </c>
+      <c r="Z104" t="n">
+        <v>393</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -8978,6 +9292,9 @@
       <c r="Y105" t="n">
         <v>28</v>
       </c>
+      <c r="Z105" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -9059,6 +9376,9 @@
       <c r="Y106" t="n">
         <v>101</v>
       </c>
+      <c r="Z106" t="n">
+        <v>4613</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -9140,6 +9460,9 @@
       <c r="Y107" t="n">
         <v>77</v>
       </c>
+      <c r="Z107" t="n">
+        <v>280</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -9221,6 +9544,9 @@
       <c r="Y108" t="n">
         <v>58</v>
       </c>
+      <c r="Z108" t="n">
+        <v>927</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -9302,6 +9628,9 @@
       <c r="Y109" t="n">
         <v>42</v>
       </c>
+      <c r="Z109" t="n">
+        <v>739</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -9383,6 +9712,9 @@
       <c r="Y110" t="n">
         <v>17</v>
       </c>
+      <c r="Z110" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -9464,6 +9796,9 @@
       <c r="Y111" t="n">
         <v>32</v>
       </c>
+      <c r="Z111" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -9545,6 +9880,9 @@
       <c r="Y112" t="n">
         <v>59</v>
       </c>
+      <c r="Z112" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -9626,6 +9964,9 @@
       <c r="Y113" t="n">
         <v>17</v>
       </c>
+      <c r="Z113" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -9707,6 +10048,9 @@
       <c r="Y114" t="n">
         <v>41</v>
       </c>
+      <c r="Z114" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -9788,6 +10132,9 @@
       <c r="Y115" t="n">
         <v>61</v>
       </c>
+      <c r="Z115" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -9869,6 +10216,9 @@
       <c r="Y116" t="n">
         <v>16</v>
       </c>
+      <c r="Z116" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -9950,6 +10300,9 @@
       <c r="Y117" t="n">
         <v>25</v>
       </c>
+      <c r="Z117" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -10031,6 +10384,9 @@
       <c r="Y118" t="n">
         <v>21</v>
       </c>
+      <c r="Z118" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -10112,6 +10468,9 @@
       <c r="Y119" t="n">
         <v>37</v>
       </c>
+      <c r="Z119" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -10193,6 +10552,9 @@
       <c r="Y120" t="n">
         <v>15</v>
       </c>
+      <c r="Z120" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -10274,6 +10636,9 @@
       <c r="Y121" t="n">
         <v>19</v>
       </c>
+      <c r="Z121" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -10355,6 +10720,9 @@
       <c r="Y122" t="n">
         <v>98</v>
       </c>
+      <c r="Z122" t="n">
+        <v>1664</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -10436,6 +10804,9 @@
       <c r="Y123" t="n">
         <v>4</v>
       </c>
+      <c r="Z123" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -10517,6 +10888,9 @@
       <c r="Y124" t="n">
         <v>3</v>
       </c>
+      <c r="Z124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -10598,6 +10972,9 @@
       <c r="Y125" t="n">
         <v>9</v>
       </c>
+      <c r="Z125" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -10679,6 +11056,9 @@
       <c r="Y126" t="n">
         <v>5</v>
       </c>
+      <c r="Z126" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -10760,6 +11140,9 @@
       <c r="Y127" t="n">
         <v>3</v>
       </c>
+      <c r="Z127" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -10841,6 +11224,9 @@
       <c r="Y128" t="n">
         <v>71</v>
       </c>
+      <c r="Z128" t="n">
+        <v>707</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -10922,6 +11308,9 @@
       <c r="Y129" t="n">
         <v>5</v>
       </c>
+      <c r="Z129" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -11003,6 +11392,9 @@
       <c r="Y130" t="n">
         <v>16</v>
       </c>
+      <c r="Z130" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -11084,6 +11476,9 @@
       <c r="Y131" t="n">
         <v>32</v>
       </c>
+      <c r="Z131" t="n">
+        <v>501</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -11165,6 +11560,9 @@
       <c r="Y132" t="n">
         <v>6</v>
       </c>
+      <c r="Z132" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -11246,6 +11644,9 @@
       <c r="Y133" t="n">
         <v>33</v>
       </c>
+      <c r="Z133" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -11327,6 +11728,9 @@
       <c r="Y134" t="n">
         <v>4</v>
       </c>
+      <c r="Z134" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -11408,6 +11812,9 @@
       <c r="Y135" t="n">
         <v>39</v>
       </c>
+      <c r="Z135" t="n">
+        <v>714</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -11489,6 +11896,9 @@
       <c r="Y136" t="n">
         <v>5</v>
       </c>
+      <c r="Z136" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -11570,6 +11980,9 @@
       <c r="Y137" t="n">
         <v>14</v>
       </c>
+      <c r="Z137" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -11651,6 +12064,9 @@
       <c r="Y138" t="n">
         <v>17</v>
       </c>
+      <c r="Z138" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -11732,6 +12148,9 @@
       <c r="Y139" t="n">
         <v>116</v>
       </c>
+      <c r="Z139" t="n">
+        <v>1288</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -11813,6 +12232,9 @@
       <c r="Y140" t="n">
         <v>16</v>
       </c>
+      <c r="Z140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -11894,6 +12316,9 @@
       <c r="Y141" t="n">
         <v>21</v>
       </c>
+      <c r="Z141" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -11975,6 +12400,9 @@
       <c r="Y142" t="n">
         <v>18</v>
       </c>
+      <c r="Z142" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -12056,6 +12484,9 @@
       <c r="Y143" t="n">
         <v>187</v>
       </c>
+      <c r="Z143" t="n">
+        <v>4321</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -12137,6 +12568,9 @@
       <c r="Y144" t="n">
         <v>65</v>
       </c>
+      <c r="Z144" t="n">
+        <v>515</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -12218,6 +12652,9 @@
       <c r="Y145" t="n">
         <v>4</v>
       </c>
+      <c r="Z145" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -12299,6 +12736,9 @@
       <c r="Y146" t="n">
         <v>17</v>
       </c>
+      <c r="Z146" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -12380,6 +12820,9 @@
       <c r="Y147" t="n">
         <v>28</v>
       </c>
+      <c r="Z147" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -12461,6 +12904,9 @@
       <c r="Y148" t="n">
         <v>128</v>
       </c>
+      <c r="Z148" t="n">
+        <v>4721</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -12542,6 +12988,9 @@
       <c r="Y149" t="n">
         <v>30</v>
       </c>
+      <c r="Z149" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -12623,6 +13072,9 @@
       <c r="Y150" t="n">
         <v>98</v>
       </c>
+      <c r="Z150" t="n">
+        <v>808</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -12704,6 +13156,9 @@
       <c r="Y151" t="n">
         <v>45</v>
       </c>
+      <c r="Z151" t="n">
+        <v>281</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -12785,6 +13240,9 @@
       <c r="Y152" t="n">
         <v>5</v>
       </c>
+      <c r="Z152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -12866,6 +13324,9 @@
       <c r="Y153" t="n">
         <v>53</v>
       </c>
+      <c r="Z153" t="n">
+        <v>590</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -12947,6 +13408,9 @@
       <c r="Y154" t="n">
         <v>12</v>
       </c>
+      <c r="Z154" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -13028,6 +13492,9 @@
       <c r="Y155" t="n">
         <v>28</v>
       </c>
+      <c r="Z155" t="n">
+        <v>426</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -13109,6 +13576,9 @@
       <c r="Y156" t="n">
         <v>242</v>
       </c>
+      <c r="Z156" t="n">
+        <v>17607</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -13190,6 +13660,9 @@
       <c r="Y157" t="n">
         <v>3</v>
       </c>
+      <c r="Z157" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -13271,6 +13744,9 @@
       <c r="Y158" t="n">
         <v>23</v>
       </c>
+      <c r="Z158" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -13352,6 +13828,9 @@
       <c r="Y159" t="n">
         <v>90</v>
       </c>
+      <c r="Z159" t="n">
+        <v>2178</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -13433,6 +13912,9 @@
       <c r="Y160" t="n">
         <v>91</v>
       </c>
+      <c r="Z160" t="n">
+        <v>2465</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -13514,6 +13996,9 @@
       <c r="Y161" t="n">
         <v>70</v>
       </c>
+      <c r="Z161" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -13595,6 +14080,9 @@
       <c r="Y162" t="n">
         <v>170</v>
       </c>
+      <c r="Z162" t="n">
+        <v>2780</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -13676,6 +14164,9 @@
       <c r="Y163" t="n">
         <v>55</v>
       </c>
+      <c r="Z163" t="n">
+        <v>388</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -13757,6 +14248,9 @@
       <c r="Y164" t="n">
         <v>7</v>
       </c>
+      <c r="Z164" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -13838,6 +14332,9 @@
       <c r="Y165" t="n">
         <v>11</v>
       </c>
+      <c r="Z165" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -13919,6 +14416,9 @@
       <c r="Y166" t="n">
         <v>91</v>
       </c>
+      <c r="Z166" t="n">
+        <v>1243</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -14000,6 +14500,9 @@
       <c r="Y167" t="n">
         <v>7</v>
       </c>
+      <c r="Z167" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -14081,6 +14584,9 @@
       <c r="Y168" t="n">
         <v>51</v>
       </c>
+      <c r="Z168" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -14162,6 +14668,9 @@
       <c r="Y169" t="n">
         <v>43</v>
       </c>
+      <c r="Z169" t="n">
+        <v>314</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -14243,6 +14752,9 @@
       <c r="Y170" t="n">
         <v>47</v>
       </c>
+      <c r="Z170" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -14324,6 +14836,9 @@
       <c r="Y171" t="n">
         <v>28</v>
       </c>
+      <c r="Z171" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -14405,6 +14920,9 @@
       <c r="Y172" t="n">
         <v>5</v>
       </c>
+      <c r="Z172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -14486,6 +15004,9 @@
       <c r="Y173" t="n">
         <v>85</v>
       </c>
+      <c r="Z173" t="n">
+        <v>2624</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -14567,6 +15088,9 @@
       <c r="Y174" t="n">
         <v>10</v>
       </c>
+      <c r="Z174" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -14648,6 +15172,9 @@
       <c r="Y175" t="n">
         <v>12</v>
       </c>
+      <c r="Z175" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -14729,6 +15256,9 @@
       <c r="Y176" t="n">
         <v>17</v>
       </c>
+      <c r="Z176" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -14810,6 +15340,9 @@
       <c r="Y177" t="n">
         <v>42</v>
       </c>
+      <c r="Z177" t="n">
+        <v>911</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -14891,6 +15424,9 @@
       <c r="Y178" t="n">
         <v>54</v>
       </c>
+      <c r="Z178" t="n">
+        <v>703</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -14972,6 +15508,9 @@
       <c r="Y179" t="n">
         <v>7</v>
       </c>
+      <c r="Z179" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -15053,6 +15592,9 @@
       <c r="Y180" t="n">
         <v>37</v>
       </c>
+      <c r="Z180" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -15134,6 +15676,9 @@
       <c r="Y181" t="n">
         <v>7</v>
       </c>
+      <c r="Z181" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -15215,6 +15760,9 @@
       <c r="Y182" t="n">
         <v>63</v>
       </c>
+      <c r="Z182" t="n">
+        <v>826</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -15296,6 +15844,9 @@
       <c r="Y183" t="n">
         <v>135</v>
       </c>
+      <c r="Z183" t="n">
+        <v>3013</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -15377,6 +15928,9 @@
       <c r="Y184" t="n">
         <v>9</v>
       </c>
+      <c r="Z184" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -15458,6 +16012,9 @@
       <c r="Y185" t="n">
         <v>66</v>
       </c>
+      <c r="Z185" t="n">
+        <v>530</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -15539,6 +16096,9 @@
       <c r="Y186" t="n">
         <v>46</v>
       </c>
+      <c r="Z186" t="n">
+        <v>284</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -15620,6 +16180,9 @@
       <c r="Y187" t="n">
         <v>45</v>
       </c>
+      <c r="Z187" t="n">
+        <v>490</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -15701,6 +16264,9 @@
       <c r="Y188" t="n">
         <v>100</v>
       </c>
+      <c r="Z188" t="n">
+        <v>1260</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -15782,6 +16348,9 @@
       <c r="Y189" t="n">
         <v>92</v>
       </c>
+      <c r="Z189" t="n">
+        <v>1275</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -15863,6 +16432,9 @@
       <c r="Y190" t="n">
         <v>36</v>
       </c>
+      <c r="Z190" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -15944,6 +16516,9 @@
       <c r="Y191" t="n">
         <v>72</v>
       </c>
+      <c r="Z191" t="n">
+        <v>1129</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -16025,6 +16600,9 @@
       <c r="Y192" t="n">
         <v>317</v>
       </c>
+      <c r="Z192" t="n">
+        <v>13049</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -16106,6 +16684,9 @@
       <c r="Y193" t="n">
         <v>17</v>
       </c>
+      <c r="Z193" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -16187,6 +16768,9 @@
       <c r="Y194" t="n">
         <v>56</v>
       </c>
+      <c r="Z194" t="n">
+        <v>1010</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -16268,6 +16852,9 @@
       <c r="Y195" t="n">
         <v>84</v>
       </c>
+      <c r="Z195" t="n">
+        <v>877</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -16349,6 +16936,9 @@
       <c r="Y196" t="n">
         <v>69</v>
       </c>
+      <c r="Z196" t="n">
+        <v>1402</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -16430,6 +17020,9 @@
       <c r="Y197" t="n">
         <v>8</v>
       </c>
+      <c r="Z197" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -16511,6 +17104,9 @@
       <c r="Y198" t="n">
         <v>145</v>
       </c>
+      <c r="Z198" t="n">
+        <v>5156</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -16592,6 +17188,9 @@
       <c r="Y199" t="n">
         <v>201</v>
       </c>
+      <c r="Z199" t="n">
+        <v>5930</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -16673,6 +17272,9 @@
       <c r="Y200" t="n">
         <v>66</v>
       </c>
+      <c r="Z200" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -16754,6 +17356,9 @@
       <c r="Y201" t="n">
         <v>31</v>
       </c>
+      <c r="Z201" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -16835,6 +17440,9 @@
       <c r="Y202" t="n">
         <v>25</v>
       </c>
+      <c r="Z202" t="n">
+        <v>621</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -16916,6 +17524,9 @@
       <c r="Y203" t="n">
         <v>51</v>
       </c>
+      <c r="Z203" t="n">
+        <v>798</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -16997,6 +17608,9 @@
       <c r="Y204" t="n">
         <v>87</v>
       </c>
+      <c r="Z204" t="n">
+        <v>798</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -17078,6 +17692,9 @@
       <c r="Y205" t="n">
         <v>43</v>
       </c>
+      <c r="Z205" t="n">
+        <v>576</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -17159,6 +17776,9 @@
       <c r="Y206" t="n">
         <v>40</v>
       </c>
+      <c r="Z206" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -17240,6 +17860,9 @@
       <c r="Y207" t="n">
         <v>249</v>
       </c>
+      <c r="Z207" t="n">
+        <v>11323</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -17321,6 +17944,9 @@
       <c r="Y208" t="n">
         <v>325</v>
       </c>
+      <c r="Z208" t="n">
+        <v>6713</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -17402,6 +18028,9 @@
       <c r="Y209" t="n">
         <v>102</v>
       </c>
+      <c r="Z209" t="n">
+        <v>3032</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -17483,6 +18112,9 @@
       <c r="Y210" t="n">
         <v>46</v>
       </c>
+      <c r="Z210" t="n">
+        <v>323</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -17564,6 +18196,9 @@
       <c r="Y211" t="n">
         <v>226</v>
       </c>
+      <c r="Z211" t="n">
+        <v>3625</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -17645,6 +18280,9 @@
       <c r="Y212" t="n">
         <v>133</v>
       </c>
+      <c r="Z212" t="n">
+        <v>1702</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -17726,6 +18364,9 @@
       <c r="Y213" t="n">
         <v>75</v>
       </c>
+      <c r="Z213" t="n">
+        <v>1813</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -17807,6 +18448,9 @@
       <c r="Y214" t="n">
         <v>106</v>
       </c>
+      <c r="Z214" t="n">
+        <v>3323</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -17888,6 +18532,9 @@
       <c r="Y215" t="n">
         <v>61</v>
       </c>
+      <c r="Z215" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -17969,6 +18616,9 @@
       <c r="Y216" t="n">
         <v>41</v>
       </c>
+      <c r="Z216" t="n">
+        <v>296</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -18050,6 +18700,9 @@
       <c r="Y217" t="n">
         <v>28</v>
       </c>
+      <c r="Z217" t="n">
+        <v>674</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -18131,6 +18784,9 @@
       <c r="Y218" t="n">
         <v>14</v>
       </c>
+      <c r="Z218" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -18212,6 +18868,9 @@
       <c r="Y219" t="n">
         <v>19</v>
       </c>
+      <c r="Z219" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -18293,6 +18952,9 @@
       <c r="Y220" t="n">
         <v>179</v>
       </c>
+      <c r="Z220" t="n">
+        <v>8120</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -18374,6 +19036,9 @@
       <c r="Y221" t="n">
         <v>114</v>
       </c>
+      <c r="Z221" t="n">
+        <v>1162</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -18455,6 +19120,9 @@
       <c r="Y222" t="n">
         <v>25</v>
       </c>
+      <c r="Z222" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -18536,6 +19204,9 @@
       <c r="Y223" t="n">
         <v>34</v>
       </c>
+      <c r="Z223" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -18617,6 +19288,9 @@
       <c r="Y224" t="n">
         <v>77</v>
       </c>
+      <c r="Z224" t="n">
+        <v>820</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -18698,6 +19372,9 @@
       <c r="Y225" t="n">
         <v>48</v>
       </c>
+      <c r="Z225" t="n">
+        <v>219</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -18779,6 +19456,9 @@
       <c r="Y226" t="n">
         <v>97</v>
       </c>
+      <c r="Z226" t="n">
+        <v>282</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -18860,6 +19540,9 @@
       <c r="Y227" t="n">
         <v>82</v>
       </c>
+      <c r="Z227" t="n">
+        <v>942</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -18941,6 +19624,9 @@
       <c r="Y228" t="n">
         <v>133</v>
       </c>
+      <c r="Z228" t="n">
+        <v>4553</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -19022,6 +19708,9 @@
       <c r="Y229" t="n">
         <v>126</v>
       </c>
+      <c r="Z229" t="n">
+        <v>2766</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -19103,6 +19792,9 @@
       <c r="Y230" t="n">
         <v>46</v>
       </c>
+      <c r="Z230" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -19184,6 +19876,9 @@
       <c r="Y231" t="n">
         <v>50</v>
       </c>
+      <c r="Z231" t="n">
+        <v>412</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -19265,6 +19960,9 @@
       <c r="Y232" t="n">
         <v>67</v>
       </c>
+      <c r="Z232" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -19346,6 +20044,9 @@
       <c r="Y233" t="n">
         <v>76</v>
       </c>
+      <c r="Z233" t="n">
+        <v>527</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -19427,6 +20128,9 @@
       <c r="Y234" t="n">
         <v>49</v>
       </c>
+      <c r="Z234" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -19508,6 +20212,9 @@
       <c r="Y235" t="n">
         <v>88</v>
       </c>
+      <c r="Z235" t="n">
+        <v>2723</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -19589,6 +20296,9 @@
       <c r="Y236" t="n">
         <v>12</v>
       </c>
+      <c r="Z236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -19670,6 +20380,9 @@
       <c r="Y237" t="n">
         <v>54</v>
       </c>
+      <c r="Z237" t="n">
+        <v>496</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -19751,6 +20464,9 @@
       <c r="Y238" t="n">
         <v>47</v>
       </c>
+      <c r="Z238" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -19832,6 +20548,9 @@
       <c r="Y239" t="n">
         <v>110</v>
       </c>
+      <c r="Z239" t="n">
+        <v>480</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -19913,6 +20632,9 @@
       <c r="Y240" t="n">
         <v>66</v>
       </c>
+      <c r="Z240" t="n">
+        <v>1696</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -19994,6 +20716,9 @@
       <c r="Y241" t="n">
         <v>192</v>
       </c>
+      <c r="Z241" t="n">
+        <v>5687</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -20075,6 +20800,9 @@
       <c r="Y242" t="n">
         <v>63</v>
       </c>
+      <c r="Z242" t="n">
+        <v>1032</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -20156,6 +20884,9 @@
       <c r="Y243" t="n">
         <v>80</v>
       </c>
+      <c r="Z243" t="n">
+        <v>355</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -20237,6 +20968,9 @@
       <c r="Y244" t="n">
         <v>60</v>
       </c>
+      <c r="Z244" t="n">
+        <v>1552</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -20318,6 +21052,9 @@
       <c r="Y245" t="n">
         <v>46</v>
       </c>
+      <c r="Z245" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -20399,6 +21136,9 @@
       <c r="Y246" t="n">
         <v>69</v>
       </c>
+      <c r="Z246" t="n">
+        <v>1292</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -20480,6 +21220,9 @@
       <c r="Y247" t="n">
         <v>69</v>
       </c>
+      <c r="Z247" t="n">
+        <v>845</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -20561,6 +21304,9 @@
       <c r="Y248" t="n">
         <v>52</v>
       </c>
+      <c r="Z248" t="n">
+        <v>457</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -20642,6 +21388,9 @@
       <c r="Y249" t="n">
         <v>31</v>
       </c>
+      <c r="Z249" t="n">
+        <v>367</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -20723,6 +21472,9 @@
       <c r="Y250" t="n">
         <v>42</v>
       </c>
+      <c r="Z250" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -20804,6 +21556,9 @@
       <c r="Y251" t="n">
         <v>38</v>
       </c>
+      <c r="Z251" t="n">
+        <v>396</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -20885,6 +21640,9 @@
       <c r="Y252" t="n">
         <v>80</v>
       </c>
+      <c r="Z252" t="n">
+        <v>761</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -20966,6 +21724,9 @@
       <c r="Y253" t="n">
         <v>67</v>
       </c>
+      <c r="Z253" t="n">
+        <v>810</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -21047,6 +21808,9 @@
       <c r="Y254" t="n">
         <v>19</v>
       </c>
+      <c r="Z254" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -21128,6 +21892,9 @@
       <c r="Y255" t="n">
         <v>117</v>
       </c>
+      <c r="Z255" t="n">
+        <v>2127</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -21209,6 +21976,9 @@
       <c r="Y256" t="n">
         <v>17</v>
       </c>
+      <c r="Z256" t="n">
+        <v>469</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -21290,6 +22060,9 @@
       <c r="Y257" t="n">
         <v>200</v>
       </c>
+      <c r="Z257" t="n">
+        <v>9642</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -21371,6 +22144,9 @@
       <c r="Y258" t="n">
         <v>51</v>
       </c>
+      <c r="Z258" t="n">
+        <v>2155</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -21452,6 +22228,9 @@
       <c r="Y259" t="n">
         <v>38</v>
       </c>
+      <c r="Z259" t="n">
+        <v>351</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -21533,6 +22312,9 @@
       <c r="Y260" t="n">
         <v>125</v>
       </c>
+      <c r="Z260" t="n">
+        <v>1609</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -21614,6 +22396,9 @@
       <c r="Y261" t="n">
         <v>73</v>
       </c>
+      <c r="Z261" t="n">
+        <v>771</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -21695,6 +22480,9 @@
       <c r="Y262" t="n">
         <v>49</v>
       </c>
+      <c r="Z262" t="n">
+        <v>520</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -21776,6 +22564,9 @@
       <c r="Y263" t="n">
         <v>47</v>
       </c>
+      <c r="Z263" t="n">
+        <v>439</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -21857,6 +22648,9 @@
       <c r="Y264" t="n">
         <v>128</v>
       </c>
+      <c r="Z264" t="n">
+        <v>3581</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -21938,6 +22732,9 @@
       <c r="Y265" t="n">
         <v>52</v>
       </c>
+      <c r="Z265" t="n">
+        <v>316</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -22019,6 +22816,9 @@
       <c r="Y266" t="n">
         <v>12</v>
       </c>
+      <c r="Z266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -22100,6 +22900,9 @@
       <c r="Y267" t="n">
         <v>56</v>
       </c>
+      <c r="Z267" t="n">
+        <v>661</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -22181,6 +22984,9 @@
       <c r="Y268" t="n">
         <v>90</v>
       </c>
+      <c r="Z268" t="n">
+        <v>1143</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -22262,6 +23068,9 @@
       <c r="Y269" t="n">
         <v>202</v>
       </c>
+      <c r="Z269" t="n">
+        <v>7342</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -22343,6 +23152,9 @@
       <c r="Y270" t="n">
         <v>24</v>
       </c>
+      <c r="Z270" t="n">
+        <v>284</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -22424,6 +23236,9 @@
       <c r="Y271" t="n">
         <v>51</v>
       </c>
+      <c r="Z271" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -22505,6 +23320,9 @@
       <c r="Y272" t="n">
         <v>68</v>
       </c>
+      <c r="Z272" t="n">
+        <v>359</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -22586,6 +23404,9 @@
       <c r="Y273" t="n">
         <v>48</v>
       </c>
+      <c r="Z273" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -22667,6 +23488,9 @@
       <c r="Y274" t="n">
         <v>89</v>
       </c>
+      <c r="Z274" t="n">
+        <v>346</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -22748,6 +23572,9 @@
       <c r="Y275" t="n">
         <v>32</v>
       </c>
+      <c r="Z275" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -22829,6 +23656,9 @@
       <c r="Y276" t="n">
         <v>82</v>
       </c>
+      <c r="Z276" t="n">
+        <v>939</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -22910,6 +23740,9 @@
       <c r="Y277" t="n">
         <v>82</v>
       </c>
+      <c r="Z277" t="n">
+        <v>621</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -22991,6 +23824,9 @@
       <c r="Y278" t="n">
         <v>110</v>
       </c>
+      <c r="Z278" t="n">
+        <v>384</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -23072,6 +23908,9 @@
       <c r="Y279" t="n">
         <v>36</v>
       </c>
+      <c r="Z279" t="n">
+        <v>343</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -23153,6 +23992,9 @@
       <c r="Y280" t="n">
         <v>27</v>
       </c>
+      <c r="Z280" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -23234,6 +24076,9 @@
       <c r="Y281" t="n">
         <v>130</v>
       </c>
+      <c r="Z281" t="n">
+        <v>902</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -23315,6 +24160,9 @@
       <c r="Y282" t="n">
         <v>76</v>
       </c>
+      <c r="Z282" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -23396,6 +24244,9 @@
       <c r="Y283" t="n">
         <v>66</v>
       </c>
+      <c r="Z283" t="n">
+        <v>896</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -23477,6 +24328,9 @@
       <c r="Y284" t="n">
         <v>39</v>
       </c>
+      <c r="Z284" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -23558,6 +24412,9 @@
       <c r="Y285" t="n">
         <v>40</v>
       </c>
+      <c r="Z285" t="n">
+        <v>492</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -23639,6 +24496,9 @@
       <c r="Y286" t="n">
         <v>129</v>
       </c>
+      <c r="Z286" t="n">
+        <v>2320</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -23720,6 +24580,9 @@
       <c r="Y287" t="n">
         <v>12</v>
       </c>
+      <c r="Z287" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -23801,6 +24664,9 @@
       <c r="Y288" t="n">
         <v>36</v>
       </c>
+      <c r="Z288" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -23882,6 +24748,9 @@
       <c r="Y289" t="n">
         <v>65</v>
       </c>
+      <c r="Z289" t="n">
+        <v>726</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -23963,6 +24832,9 @@
       <c r="Y290" t="n">
         <v>94</v>
       </c>
+      <c r="Z290" t="n">
+        <v>304</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -24044,6 +24916,9 @@
       <c r="Y291" t="n">
         <v>163</v>
       </c>
+      <c r="Z291" t="n">
+        <v>1280</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -24125,6 +25000,9 @@
       <c r="Y292" t="n">
         <v>16</v>
       </c>
+      <c r="Z292" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -24206,6 +25084,9 @@
       <c r="Y293" t="n">
         <v>68</v>
       </c>
+      <c r="Z293" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -24287,6 +25168,9 @@
       <c r="Y294" t="n">
         <v>12</v>
       </c>
+      <c r="Z294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -24368,6 +25252,9 @@
       <c r="Y295" t="n">
         <v>633</v>
       </c>
+      <c r="Z295" t="n">
+        <v>83731</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -24449,6 +25336,9 @@
       <c r="Y296" t="n">
         <v>111</v>
       </c>
+      <c r="Z296" t="n">
+        <v>5107</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -24530,6 +25420,9 @@
       <c r="Y297" t="n">
         <v>240</v>
       </c>
+      <c r="Z297" t="n">
+        <v>4887</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -24611,6 +25504,9 @@
       <c r="Y298" t="n">
         <v>97</v>
       </c>
+      <c r="Z298" t="n">
+        <v>1715</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -24692,6 +25588,9 @@
       <c r="Y299" t="n">
         <v>33</v>
       </c>
+      <c r="Z299" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -24773,6 +25672,9 @@
       <c r="Y300" t="n">
         <v>34</v>
       </c>
+      <c r="Z300" t="n">
+        <v>648</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -24854,6 +25756,9 @@
       <c r="Y301" t="n">
         <v>41</v>
       </c>
+      <c r="Z301" t="n">
+        <v>459</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -24935,6 +25840,9 @@
       <c r="Y302" t="n">
         <v>43</v>
       </c>
+      <c r="Z302" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -25016,6 +25924,9 @@
       <c r="Y303" t="n">
         <v>14</v>
       </c>
+      <c r="Z303" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -25097,6 +26008,9 @@
       <c r="Y304" t="n">
         <v>27</v>
       </c>
+      <c r="Z304" t="n">
+        <v>280</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -25178,6 +26092,9 @@
       <c r="Y305" t="n">
         <v>32</v>
       </c>
+      <c r="Z305" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -25259,6 +26176,9 @@
       <c r="Y306" t="n">
         <v>23</v>
       </c>
+      <c r="Z306" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -25340,6 +26260,9 @@
       <c r="Y307" t="n">
         <v>26</v>
       </c>
+      <c r="Z307" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -25421,6 +26344,9 @@
       <c r="Y308" t="n">
         <v>140</v>
       </c>
+      <c r="Z308" t="n">
+        <v>292</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -25502,6 +26428,9 @@
       <c r="Y309" t="n">
         <v>42</v>
       </c>
+      <c r="Z309" t="n">
+        <v>862</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -25583,6 +26512,9 @@
       <c r="Y310" t="n">
         <v>111</v>
       </c>
+      <c r="Z310" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -25664,6 +26596,9 @@
       <c r="Y311" t="n">
         <v>35</v>
       </c>
+      <c r="Z311" t="n">
+        <v>510</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -25745,6 +26680,9 @@
       <c r="Y312" t="n">
         <v>27</v>
       </c>
+      <c r="Z312" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -25826,6 +26764,9 @@
       <c r="Y313" t="n">
         <v>95</v>
       </c>
+      <c r="Z313" t="n">
+        <v>3313</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -25907,6 +26848,9 @@
       <c r="Y314" t="n">
         <v>105</v>
       </c>
+      <c r="Z314" t="n">
+        <v>1693</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -25988,6 +26932,9 @@
       <c r="Y315" t="n">
         <v>78</v>
       </c>
+      <c r="Z315" t="n">
+        <v>583</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -26069,6 +27016,9 @@
       <c r="Y316" t="n">
         <v>54</v>
       </c>
+      <c r="Z316" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -26150,6 +27100,9 @@
       <c r="Y317" t="n">
         <v>17</v>
       </c>
+      <c r="Z317" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -26231,6 +27184,9 @@
       <c r="Y318" t="n">
         <v>44</v>
       </c>
+      <c r="Z318" t="n">
+        <v>313</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -26312,6 +27268,9 @@
       <c r="Y319" t="n">
         <v>45</v>
       </c>
+      <c r="Z319" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -26393,6 +27352,9 @@
       <c r="Y320" t="n">
         <v>16</v>
       </c>
+      <c r="Z320" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -26474,6 +27436,9 @@
       <c r="Y321" t="n">
         <v>96</v>
       </c>
+      <c r="Z321" t="n">
+        <v>219</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -26555,6 +27520,9 @@
       <c r="Y322" t="n">
         <v>118</v>
       </c>
+      <c r="Z322" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -26636,6 +27604,9 @@
       <c r="Y323" t="n">
         <v>173</v>
       </c>
+      <c r="Z323" t="n">
+        <v>2935</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -26717,6 +27688,9 @@
       <c r="Y324" t="n">
         <v>59</v>
       </c>
+      <c r="Z324" t="n">
+        <v>252</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -26798,6 +27772,9 @@
       <c r="Y325" t="n">
         <v>18</v>
       </c>
+      <c r="Z325" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -26879,6 +27856,9 @@
       <c r="Y326" t="n">
         <v>112</v>
       </c>
+      <c r="Z326" t="n">
+        <v>1537</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -26960,6 +27940,9 @@
       <c r="Y327" t="n">
         <v>89</v>
       </c>
+      <c r="Z327" t="n">
+        <v>594</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -27041,6 +28024,9 @@
       <c r="Y328" t="n">
         <v>12</v>
       </c>
+      <c r="Z328" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -27122,6 +28108,9 @@
       <c r="Y329" t="n">
         <v>19</v>
       </c>
+      <c r="Z329" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -27203,6 +28192,9 @@
       <c r="Y330" t="n">
         <v>70</v>
       </c>
+      <c r="Z330" t="n">
+        <v>432</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -27284,6 +28276,9 @@
       <c r="Y331" t="n">
         <v>74</v>
       </c>
+      <c r="Z331" t="n">
+        <v>925</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -27365,6 +28360,9 @@
       <c r="Y332" t="n">
         <v>29</v>
       </c>
+      <c r="Z332" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -27446,6 +28444,9 @@
       <c r="Y333" t="n">
         <v>8</v>
       </c>
+      <c r="Z333" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -27527,6 +28528,9 @@
       <c r="Y334" t="n">
         <v>60</v>
       </c>
+      <c r="Z334" t="n">
+        <v>634</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -27608,6 +28612,9 @@
       <c r="Y335" t="n">
         <v>22</v>
       </c>
+      <c r="Z335" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -27689,6 +28696,9 @@
       <c r="Y336" t="n">
         <v>5</v>
       </c>
+      <c r="Z336" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -27770,6 +28780,9 @@
       <c r="Y337" t="n">
         <v>14</v>
       </c>
+      <c r="Z337" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -27851,6 +28864,9 @@
       <c r="Y338" t="n">
         <v>12</v>
       </c>
+      <c r="Z338" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -27932,6 +28948,9 @@
       <c r="Y339" t="n">
         <v>19</v>
       </c>
+      <c r="Z339" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -28013,6 +29032,9 @@
       <c r="Y340" t="n">
         <v>38</v>
       </c>
+      <c r="Z340" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -28094,6 +29116,9 @@
       <c r="Y341" t="n">
         <v>88</v>
       </c>
+      <c r="Z341" t="n">
+        <v>1350</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -28175,6 +29200,9 @@
       <c r="Y342" t="n">
         <v>26</v>
       </c>
+      <c r="Z342" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -28256,6 +29284,9 @@
       <c r="Y343" t="n">
         <v>81</v>
       </c>
+      <c r="Z343" t="n">
+        <v>1802</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -28337,6 +29368,9 @@
       <c r="Y344" t="n">
         <v>73</v>
       </c>
+      <c r="Z344" t="n">
+        <v>579</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -28418,6 +29452,9 @@
       <c r="Y345" t="n">
         <v>34</v>
       </c>
+      <c r="Z345" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -28499,6 +29536,9 @@
       <c r="Y346" t="n">
         <v>43</v>
       </c>
+      <c r="Z346" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -28580,6 +29620,9 @@
       <c r="Y347" t="n">
         <v>20</v>
       </c>
+      <c r="Z347" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -28661,6 +29704,9 @@
       <c r="Y348" t="n">
         <v>46</v>
       </c>
+      <c r="Z348" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -28742,6 +29788,9 @@
       <c r="Y349" t="n">
         <v>21</v>
       </c>
+      <c r="Z349" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -28823,6 +29872,9 @@
       <c r="Y350" t="n">
         <v>58</v>
       </c>
+      <c r="Z350" t="n">
+        <v>414</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -28904,6 +29956,9 @@
       <c r="Y351" t="n">
         <v>45</v>
       </c>
+      <c r="Z351" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -28985,6 +30040,9 @@
       <c r="Y352" t="n">
         <v>40</v>
       </c>
+      <c r="Z352" t="n">
+        <v>1568</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -29066,6 +30124,9 @@
       <c r="Y353" t="n">
         <v>46</v>
       </c>
+      <c r="Z353" t="n">
+        <v>1128</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -29147,6 +30208,9 @@
       <c r="Y354" t="n">
         <v>38</v>
       </c>
+      <c r="Z354" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -29228,6 +30292,9 @@
       <c r="Y355" t="n">
         <v>34</v>
       </c>
+      <c r="Z355" t="n">
+        <v>298</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -29309,6 +30376,9 @@
       <c r="Y356" t="n">
         <v>17</v>
       </c>
+      <c r="Z356" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -29390,6 +30460,9 @@
       <c r="Y357" t="n">
         <v>62</v>
       </c>
+      <c r="Z357" t="n">
+        <v>445</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -29470,6 +30543,9 @@
       </c>
       <c r="Y358" t="n">
         <v>410</v>
+      </c>
+      <c r="Z358" t="n">
+        <v>20972</v>
       </c>
     </row>
   </sheetData>
